--- a/data/inputs/market_penetration_age.xlsx
+++ b/data/inputs/market_penetration_age.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\TahaZafar\Documents\Projects\impact-measurement-framework\data\outputs\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\TahaZafar\Documents\Projects\hfa-sroi-impact-model\data\inputs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F83008D2-545E-498E-ADAD-D57FABC25881}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B244D7C1-F084-4263-B8FC-89D9F4FD682C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1140" yWindow="950" windowWidth="11800" windowHeight="11050" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="30">
   <si>
     <t>market</t>
   </si>
@@ -120,6 +120,12 @@
   </si>
   <si>
     <t>CAN</t>
+  </si>
+  <si>
+    <t>KSA (Saudi Arabia)</t>
+  </si>
+  <si>
+    <t>USA (United States of America)</t>
   </si>
 </sst>
 </file>
@@ -460,8 +466,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="A19" sqref="A19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -710,8 +716,8 @@
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A10" s="1" t="s">
-        <v>22</v>
+      <c r="A10" t="s">
+        <v>28</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>22</v>
@@ -736,8 +742,8 @@
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A11" s="1" t="s">
-        <v>22</v>
+      <c r="A11" t="s">
+        <v>28</v>
       </c>
       <c r="B11" s="1" t="s">
         <v>22</v>
@@ -919,7 +925,7 @@
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A18" s="1" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="B18" s="1" t="s">
         <v>26</v>
@@ -945,7 +951,7 @@
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A19" s="1" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="B19" s="1" t="s">
         <v>26</v>
